--- a/biology/Zoologie/Adhemarius_globifer/Adhemarius_globifer.xlsx
+++ b/biology/Zoologie/Adhemarius_globifer/Adhemarius_globifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Adhemarius globifer est une espèce de lépidoptères (papillons)  de la famille des Sphingidae, de la sous-famille des Smerinthinae, de la tribu des Ambulycini.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue au Mexique et dans le sud de l'Arizona.
 </t>
@@ -542,11 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Adhemarius globifer a été décrite par l'entomologiste  Harrison Gray Dyar, en 1912, sous le nom initial d’Amplypterus globifer[1].
-Synonymie
-Amplypterus globifer Dyar, 1912 Protonyme</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adhemarius globifer a été décrite par l'entomologiste  Harrison Gray Dyar, en 1912, sous le nom initial d’Amplypterus globifer.
+</t>
         </is>
       </c>
     </row>
@@ -571,10 +586,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amplypterus globifer Dyar, 1912 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adhemarius_globifer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adhemarius_globifer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent toute l'année.
 </t>
